--- a/biology/Botanique/Corydalis_aurea/Corydalis_aurea.xlsx
+++ b/biology/Botanique/Corydalis_aurea/Corydalis_aurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corydalis aurea
 La Corydale dorée (Corydalis aurea) est une espèce de plante herbacée de la famille des Fumariaceae selon la classification classique, ou de celle des Papaveraceae selon la classification phylogénétique (APGIII).
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La Corydale dorée comprend deux sous-espèces[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La Corydale dorée comprend deux sous-espèces:
 Corydalis aurea subsp. aurea
 Corydalis aurea subsp. occidentalis (Engelm. ex A.Gray) G.B.Ownbey, 1947</t>
         </is>
